--- a/biology/Zoologie/Dendropsophus_microps/Dendropsophus_microps.xlsx
+++ b/biology/Zoologie/Dendropsophus_microps/Dendropsophus_microps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dendropsophus microps est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendropsophus microps est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre jusqu'à 1 600 m d'altitude dans les forêts atlantiques dans les États de Bahia, de l'Espírito Santo, du Minas Gerais, du Paraná, du Santa Catarina, de Rio de Janeiro, de São Paulo et du Rio Grande do Sul[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre jusqu'à 1 600 m d'altitude dans les forêts atlantiques dans les États de Bahia, de l'Espírito Santo, du Minas Gerais, du Paraná, du Santa Catarina, de Rio de Janeiro, de São Paulo et du Rio Grande do Sul,
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1872 : Über eine Sammlung von Batrachiern aus Neu-Freiburg in Brasilien. Monatsberichte der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1, p. 680-684 (texte intégral).</t>
         </is>
